--- a/results/CBA.xlsx
+++ b/results/CBA.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P132"/>
+  <dimension ref="A1:P183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6817,6 +6817,2460 @@
       </c>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>169</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="n">
+        <v>1.513900399208069</v>
+      </c>
+      <c r="E133" t="n">
+        <v>48.6359835574849</v>
+      </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>48.6359835574849</v>
+      </c>
+      <c r="H133" t="n">
+        <v>52</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-7.421379434484647</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>321</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="n">
+        <v>4.189822673797607</v>
+      </c>
+      <c r="E134" t="n">
+        <v>21.01963252394672</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>25.03536312572588</v>
+      </c>
+      <c r="H134" t="n">
+        <v>39</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-5.763691977941017</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>4.015730601779165</v>
+      </c>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>392</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="n">
+        <v>7.054941177368164</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-7.954358970061</v>
+      </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>5.976387914076698</v>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-14.812071696526</v>
+      </c>
+      <c r="J135" t="n">
+        <v>18</v>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>10</v>
+      </c>
+      <c r="M135" t="n">
+        <v>-7.826108643808392</v>
+      </c>
+      <c r="N135" t="n">
+        <v>13.9307468841377</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0.1282503262526076</v>
+      </c>
+      <c r="P135" t="n">
+        <v>-13.80249655788509</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>422</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>7.087645053863525</v>
+      </c>
+      <c r="E136" t="n">
+        <v>17.03569238937722</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>17.70831388391753</v>
+      </c>
+      <c r="H136" t="n">
+        <v>52</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-13.81392754892045</v>
+      </c>
+      <c r="J136" t="n">
+        <v>20</v>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>9</v>
+      </c>
+      <c r="M136" t="n">
+        <v>-5.340197764121845</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.6726214945403122</v>
+      </c>
+      <c r="O136" t="n">
+        <v>-22.37589015349906</v>
+      </c>
+      <c r="P136" t="n">
+        <v>-23.04851164803938</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>460</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>7.646359920501709</v>
+      </c>
+      <c r="E137" t="n">
+        <v>11.3650090215015</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>27.87877506636961</v>
+      </c>
+      <c r="H137" t="n">
+        <v>48</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-5.284209185881273</v>
+      </c>
+      <c r="J137" t="n">
+        <v>6</v>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>52</v>
+      </c>
+      <c r="M137" t="n">
+        <v>11.3650090215015</v>
+      </c>
+      <c r="N137" t="n">
+        <v>16.51376604486811</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>-16.51376604486811</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>478</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>8.93472957611084</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-6.028514177408859</v>
+      </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>9.438918326610091</v>
+      </c>
+      <c r="H138" t="n">
+        <v>30</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-18.67852951302644</v>
+      </c>
+      <c r="J138" t="n">
+        <v>42</v>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>34</v>
+      </c>
+      <c r="M138" t="n">
+        <v>-4.693596568931392</v>
+      </c>
+      <c r="N138" t="n">
+        <v>15.46743250401895</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1.334917608477467</v>
+      </c>
+      <c r="P138" t="n">
+        <v>-14.13251489554148</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>537</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>9.130022048950195</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-7.666812694429489</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>14.69861104898779</v>
+      </c>
+      <c r="H139" t="n">
+        <v>21</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-10.73225056770464</v>
+      </c>
+      <c r="J139" t="n">
+        <v>43</v>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>8</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1.465949522025436</v>
+      </c>
+      <c r="N139" t="n">
+        <v>22.36542374341728</v>
+      </c>
+      <c r="O139" t="n">
+        <v>9.132762216454925</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-13.23266152696235</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>552</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>10.07039451599121</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-15.68594528529277</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>3.988065829826799</v>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-27.61865596115122</v>
+      </c>
+      <c r="J140" t="n">
+        <v>45</v>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>23</v>
+      </c>
+      <c r="M140" t="n">
+        <v>-13.20429214284593</v>
+      </c>
+      <c r="N140" t="n">
+        <v>19.67401111511957</v>
+      </c>
+      <c r="O140" t="n">
+        <v>2.481653142446845</v>
+      </c>
+      <c r="P140" t="n">
+        <v>-17.19235797267273</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>557</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>10.2052640914917</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-9.053457178514709</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2.613792105026465</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-28.57522514516803</v>
+      </c>
+      <c r="J141" t="n">
+        <v>40</v>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>18</v>
+      </c>
+      <c r="M141" t="n">
+        <v>-14.35135704670454</v>
+      </c>
+      <c r="N141" t="n">
+        <v>11.66724928354117</v>
+      </c>
+      <c r="O141" t="n">
+        <v>-5.297899868189827</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-16.965149151731</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>609</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>9.28133487701416</v>
+      </c>
+      <c r="E142" t="n">
+        <v>18.66118451303587</v>
+      </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>20.60290655447448</v>
+      </c>
+      <c r="H142" t="n">
+        <v>43</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-5.295535495916315</v>
+      </c>
+      <c r="J142" t="n">
+        <v>23</v>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>12</v>
+      </c>
+      <c r="M142" t="n">
+        <v>-4.429323939074319</v>
+      </c>
+      <c r="N142" t="n">
+        <v>1.941722041438613</v>
+      </c>
+      <c r="O142" t="n">
+        <v>-23.09050845211019</v>
+      </c>
+      <c r="P142" t="n">
+        <v>-25.0322304935488</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>645</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>10.48269748687744</v>
+      </c>
+      <c r="E143" t="n">
+        <v>20.59271800474986</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>22.70145504723813</v>
+      </c>
+      <c r="H143" t="n">
+        <v>52</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-8.341288796041296</v>
+      </c>
+      <c r="J143" t="n">
+        <v>27</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>20</v>
+      </c>
+      <c r="M143" t="n">
+        <v>2.387802660230432</v>
+      </c>
+      <c r="N143" t="n">
+        <v>2.108737042488272</v>
+      </c>
+      <c r="O143" t="n">
+        <v>-18.20491534451943</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-20.3136523870077</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>692</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>11.1976261138916</v>
+      </c>
+      <c r="E144" t="n">
+        <v>39.68519690991708</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>40.53098337585765</v>
+      </c>
+      <c r="H144" t="n">
+        <v>52</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-83.09864114854524</v>
+      </c>
+      <c r="J144" t="n">
+        <v>38</v>
+      </c>
+      <c r="K144" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>0.8457864659405701</v>
+      </c>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>700</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>12.88181686401367</v>
+      </c>
+      <c r="E145" t="n">
+        <v>27.13663248236321</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>29.62157605585037</v>
+      </c>
+      <c r="H145" t="n">
+        <v>52</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-85.30835368697089</v>
+      </c>
+      <c r="J145" t="n">
+        <v>30</v>
+      </c>
+      <c r="K145" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>2.484943573487154</v>
+      </c>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>723</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>13.53598976135254</v>
+      </c>
+      <c r="E146" t="n">
+        <v>25.80450479000477</v>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>30.36917500145232</v>
+      </c>
+      <c r="H146" t="n">
+        <v>38</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-86.018377630895</v>
+      </c>
+      <c r="J146" t="n">
+        <v>7</v>
+      </c>
+      <c r="K146" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>4.564670211447549</v>
+      </c>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>742</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>15.4520149230957</v>
+      </c>
+      <c r="E147" t="n">
+        <v>20.81633504523839</v>
+      </c>
+      <c r="F147" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>21.93201942060889</v>
+      </c>
+      <c r="H147" t="n">
+        <v>52</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-2.498819192088695</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>1.115684375370503</v>
+      </c>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>780</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>17.66483306884766</v>
+      </c>
+      <c r="E148" t="n">
+        <v>26.98033571380754</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>27.64142093714119</v>
+      </c>
+      <c r="H148" t="n">
+        <v>51</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-3.92536431748224</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>48</v>
+      </c>
+      <c r="M148" t="n">
+        <v>16.2884361644924</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0.6610852233336466</v>
+      </c>
+      <c r="O148" t="n">
+        <v>-10.69189954931514</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-11.35298477264879</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>804</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>19.4270133972168</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-10.48655176307149</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>28.8533603365811</v>
+      </c>
+      <c r="H149" t="n">
+        <v>35</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-12.33576891339204</v>
+      </c>
+      <c r="J149" t="n">
+        <v>51</v>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>24</v>
+      </c>
+      <c r="M149" t="n">
+        <v>5.740175840790902</v>
+      </c>
+      <c r="N149" t="n">
+        <v>39.33991209965258</v>
+      </c>
+      <c r="O149" t="n">
+        <v>16.22672760386239</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-23.11318449579019</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>823</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>21.54383850097656</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-22.74967649906472</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>16.1926625759702</v>
+      </c>
+      <c r="H150" t="n">
+        <v>16</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-29.14887205141243</v>
+      </c>
+      <c r="J150" t="n">
+        <v>36</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>5</v>
+      </c>
+      <c r="M150" t="n">
+        <v>-4.649498157443497</v>
+      </c>
+      <c r="N150" t="n">
+        <v>38.94233907503492</v>
+      </c>
+      <c r="O150" t="n">
+        <v>18.10017834162123</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-20.84216073341369</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>915</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>16.41722106933594</v>
+      </c>
+      <c r="E151" t="n">
+        <v>69.64927192474526</v>
+      </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>69.64927192474526</v>
+      </c>
+      <c r="H151" t="n">
+        <v>52</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-8.243240934426145</v>
+      </c>
+      <c r="J151" t="n">
+        <v>6</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>32</v>
+      </c>
+      <c r="M151" t="n">
+        <v>40.18540196799201</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>-29.46386995675325</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-29.46386995675325</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>923</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>16.77218818664551</v>
+      </c>
+      <c r="E152" t="n">
+        <v>45.71433055281896</v>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>66.53067967184528</v>
+      </c>
+      <c r="H152" t="n">
+        <v>45</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-4.232803469422715</v>
+      </c>
+      <c r="J152" t="n">
+        <v>4</v>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>24</v>
+      </c>
+      <c r="M152" t="n">
+        <v>37.21851371991698</v>
+      </c>
+      <c r="N152" t="n">
+        <v>20.81634911902631</v>
+      </c>
+      <c r="O152" t="n">
+        <v>-8.495816832901987</v>
+      </c>
+      <c r="P152" t="n">
+        <v>-29.3121659519283</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>939</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>22.74164581298828</v>
+      </c>
+      <c r="E153" t="n">
+        <v>7.748743371310924</v>
+      </c>
+      <c r="F153" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>22.81801947293434</v>
+      </c>
+      <c r="H153" t="n">
+        <v>29</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-3.690231908343449</v>
+      </c>
+      <c r="J153" t="n">
+        <v>39</v>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>8</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1.200007850259981</v>
+      </c>
+      <c r="N153" t="n">
+        <v>15.06927610162342</v>
+      </c>
+      <c r="O153" t="n">
+        <v>-6.548735521050943</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-21.61801162267436</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>964</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>26.70653533935547</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-4.223671960323144</v>
+      </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>4.584284813245952</v>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-17.98851455494142</v>
+      </c>
+      <c r="J154" t="n">
+        <v>14</v>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>14</v>
+      </c>
+      <c r="M154" t="n">
+        <v>-16.80322178764678</v>
+      </c>
+      <c r="N154" t="n">
+        <v>8.807956773569096</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-12.57954982732363</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-21.38750660089273</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>26.5353832244873</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-3.552224693996622</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1.179249615489304</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-19.31224798490748</v>
+      </c>
+      <c r="J155" t="n">
+        <v>26</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>4</v>
+      </c>
+      <c r="M155" t="n">
+        <v>-5.464634845588216</v>
+      </c>
+      <c r="N155" t="n">
+        <v>4.731474309485926</v>
+      </c>
+      <c r="O155" t="n">
+        <v>-1.912410151591594</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-6.64388446107752</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1060</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>26.24953842163086</v>
+      </c>
+      <c r="E156" t="n">
+        <v>32.36807927269232</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>32.74276766487846</v>
+      </c>
+      <c r="H156" t="n">
+        <v>52</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-5.023478742423099</v>
+      </c>
+      <c r="J156" t="n">
+        <v>4</v>
+      </c>
+      <c r="K156" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>0.3746883921861368</v>
+      </c>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1069</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>26.43463516235352</v>
+      </c>
+      <c r="E157" t="n">
+        <v>44.10314125570858</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>50.33253808841103</v>
+      </c>
+      <c r="H157" t="n">
+        <v>50</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-3.093818343919332</v>
+      </c>
+      <c r="J157" t="n">
+        <v>8</v>
+      </c>
+      <c r="K157" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>6.229396832702449</v>
+      </c>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1096</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>31.06321907043457</v>
+      </c>
+      <c r="E158" t="n">
+        <v>33.02229457033624</v>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>38.28682072046632</v>
+      </c>
+      <c r="H158" t="n">
+        <v>50</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-2.005278703879982</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>5.264526150130074</v>
+      </c>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1144</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>42.12715148925781</v>
+      </c>
+      <c r="E159" t="n">
+        <v>17.00198671059042</v>
+      </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>17.98059378124137</v>
+      </c>
+      <c r="H159" t="n">
+        <v>52</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-3.827216699716005</v>
+      </c>
+      <c r="J159" t="n">
+        <v>5</v>
+      </c>
+      <c r="K159" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>0.978607070650952</v>
+      </c>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1177</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>46.54758071899414</v>
+      </c>
+      <c r="E160" t="n">
+        <v>22.55353945679657</v>
+      </c>
+      <c r="F160" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>28.66124733606112</v>
+      </c>
+      <c r="H160" t="n">
+        <v>48</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-4.17731976533262</v>
+      </c>
+      <c r="J160" t="n">
+        <v>25</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>25</v>
+      </c>
+      <c r="M160" t="n">
+        <v>-0.3089860499391543</v>
+      </c>
+      <c r="N160" t="n">
+        <v>6.107707879264545</v>
+      </c>
+      <c r="O160" t="n">
+        <v>-22.86252550673573</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-28.97023338600027</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>46.69509124755859</v>
+      </c>
+      <c r="E161" t="n">
+        <v>17.94827282249794</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>28.25480442968182</v>
+      </c>
+      <c r="H161" t="n">
+        <v>47</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-4.480025121125611</v>
+      </c>
+      <c r="J161" t="n">
+        <v>24</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>24</v>
+      </c>
+      <c r="M161" t="n">
+        <v>-0.623911532854205</v>
+      </c>
+      <c r="N161" t="n">
+        <v>10.30653160718388</v>
+      </c>
+      <c r="O161" t="n">
+        <v>-18.57218435535214</v>
+      </c>
+      <c r="P161" t="n">
+        <v>-28.87871596253602</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>54.15792465209961</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-6.999455877665802</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>10.58159695470525</v>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-17.07146439642727</v>
+      </c>
+      <c r="J162" t="n">
+        <v>35</v>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>11</v>
+      </c>
+      <c r="M162" t="n">
+        <v>5.309274556381816</v>
+      </c>
+      <c r="N162" t="n">
+        <v>17.58105283237106</v>
+      </c>
+      <c r="O162" t="n">
+        <v>12.30873043404762</v>
+      </c>
+      <c r="P162" t="n">
+        <v>-5.272322398323439</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1284</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>50.90419006347656</v>
+      </c>
+      <c r="E163" t="n">
+        <v>11.28260848061049</v>
+      </c>
+      <c r="F163" t="b">
+        <v>1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>19.55352149624284</v>
+      </c>
+      <c r="H163" t="n">
+        <v>50</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-8.243959881779322</v>
+      </c>
+      <c r="J163" t="n">
+        <v>7</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>7</v>
+      </c>
+      <c r="M163" t="n">
+        <v>-4.600078775632445</v>
+      </c>
+      <c r="N163" t="n">
+        <v>8.270913015632344</v>
+      </c>
+      <c r="O163" t="n">
+        <v>-15.88268725624294</v>
+      </c>
+      <c r="P163" t="n">
+        <v>-24.15360027187528</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1311</v>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="n">
+        <v>52.07676696777344</v>
+      </c>
+      <c r="E164" t="n">
+        <v>10.91782421006398</v>
+      </c>
+      <c r="F164" t="b">
+        <v>1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>16.86161671228025</v>
+      </c>
+      <c r="H164" t="n">
+        <v>23</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-2.419985162088411</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>41</v>
+      </c>
+      <c r="M164" t="n">
+        <v>3.461180994596096</v>
+      </c>
+      <c r="N164" t="n">
+        <v>5.943792502216265</v>
+      </c>
+      <c r="O164" t="n">
+        <v>-7.456643215467887</v>
+      </c>
+      <c r="P164" t="n">
+        <v>-13.40043571768415</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1314</v>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="n">
+        <v>54.65825271606445</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3.981482004919902</v>
+      </c>
+      <c r="F165" t="b">
+        <v>1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>11.34229285770826</v>
+      </c>
+      <c r="H165" t="n">
+        <v>20</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-4.402864807234563</v>
+      </c>
+      <c r="J165" t="n">
+        <v>39</v>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>38</v>
+      </c>
+      <c r="M165" t="n">
+        <v>-1.425246049208934</v>
+      </c>
+      <c r="N165" t="n">
+        <v>7.360810852788358</v>
+      </c>
+      <c r="O165" t="n">
+        <v>-5.406728054128837</v>
+      </c>
+      <c r="P165" t="n">
+        <v>-12.7675389069172</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1325</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="n">
+        <v>56.25049209594727</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-1.663295181947273</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>8.190612281614925</v>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-7.108859325438424</v>
+      </c>
+      <c r="J166" t="n">
+        <v>28</v>
+      </c>
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>27</v>
+      </c>
+      <c r="M166" t="n">
+        <v>-4.21552572951803</v>
+      </c>
+      <c r="N166" t="n">
+        <v>9.853907463562198</v>
+      </c>
+      <c r="O166" t="n">
+        <v>-2.552230547570757</v>
+      </c>
+      <c r="P166" t="n">
+        <v>-12.40613801113296</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1371</v>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="n">
+        <v>57.73387908935547</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-6.157081229157843</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2.20079929418664</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-14.65206331076873</v>
+      </c>
+      <c r="J167" t="n">
+        <v>22</v>
+      </c>
+      <c r="K167" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>4</v>
+      </c>
+      <c r="M167" t="n">
+        <v>-5.724548864554639</v>
+      </c>
+      <c r="N167" t="n">
+        <v>8.357880523344482</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0.4325323646032038</v>
+      </c>
+      <c r="P167" t="n">
+        <v>-7.925348158741279</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1424</v>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="n">
+        <v>55.36618041992188</v>
+      </c>
+      <c r="E168" t="n">
+        <v>21.5264085933551</v>
+      </c>
+      <c r="F168" t="b">
+        <v>1</v>
+      </c>
+      <c r="G168" t="n">
+        <v>22.842155716195</v>
+      </c>
+      <c r="H168" t="n">
+        <v>52</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-5.571501449954668</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2</v>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>12</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0.5576925090905755</v>
+      </c>
+      <c r="N168" t="n">
+        <v>1.315747122839898</v>
+      </c>
+      <c r="O168" t="n">
+        <v>-20.96871608426453</v>
+      </c>
+      <c r="P168" t="n">
+        <v>-22.28446320710443</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1427</v>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="n">
+        <v>56.5153694152832</v>
+      </c>
+      <c r="E169" t="n">
+        <v>20.11764971905477</v>
+      </c>
+      <c r="F169" t="b">
+        <v>1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>21.77489874136729</v>
+      </c>
+      <c r="H169" t="n">
+        <v>51</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-7.397991677989149</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>9</v>
+      </c>
+      <c r="M169" t="n">
+        <v>-1.487057349681897</v>
+      </c>
+      <c r="N169" t="n">
+        <v>1.657249022312524</v>
+      </c>
+      <c r="O169" t="n">
+        <v>-21.60470706873667</v>
+      </c>
+      <c r="P169" t="n">
+        <v>-23.26195609104919</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1438</v>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="n">
+        <v>58.64406967163086</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-17.80363621319738</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>24.28920147188444</v>
+      </c>
+      <c r="H170" t="n">
+        <v>42</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-25.39787008730733</v>
+      </c>
+      <c r="J170" t="n">
+        <v>48</v>
+      </c>
+      <c r="K170" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
+        <v>42.09283768508182</v>
+      </c>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1458</v>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="n">
+        <v>65.75551605224609</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-16.92245716207779</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>10.84734830089715</v>
+      </c>
+      <c r="H171" t="n">
+        <v>22</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-33.46607605092981</v>
+      </c>
+      <c r="J171" t="n">
+        <v>28</v>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>51</v>
+      </c>
+      <c r="M171" t="n">
+        <v>-15.74824970845395</v>
+      </c>
+      <c r="N171" t="n">
+        <v>27.76980546297494</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1.174207453623842</v>
+      </c>
+      <c r="P171" t="n">
+        <v>-26.5955980093511</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1502</v>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="n">
+        <v>59.43544769287109</v>
+      </c>
+      <c r="E172" t="n">
+        <v>39.57283927765256</v>
+      </c>
+      <c r="F172" t="b">
+        <v>1</v>
+      </c>
+      <c r="G172" t="n">
+        <v>51.48466402182703</v>
+      </c>
+      <c r="H172" t="n">
+        <v>48</v>
+      </c>
+      <c r="I172" t="n">
+        <v>-12.50238755067722</v>
+      </c>
+      <c r="J172" t="n">
+        <v>10</v>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>7</v>
+      </c>
+      <c r="M172" t="n">
+        <v>-6.789339800159751</v>
+      </c>
+      <c r="N172" t="n">
+        <v>11.91182474417447</v>
+      </c>
+      <c r="O172" t="n">
+        <v>-46.36217907781231</v>
+      </c>
+      <c r="P172" t="n">
+        <v>-58.27400382198678</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1503</v>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="n">
+        <v>59.64829635620117</v>
+      </c>
+      <c r="E173" t="n">
+        <v>40.39203161486279</v>
+      </c>
+      <c r="F173" t="b">
+        <v>1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>50.94410695277839</v>
+      </c>
+      <c r="H173" t="n">
+        <v>47</v>
+      </c>
+      <c r="I173" t="n">
+        <v>-12.81461356536835</v>
+      </c>
+      <c r="J173" t="n">
+        <v>9</v>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>6</v>
+      </c>
+      <c r="M173" t="n">
+        <v>-7.121952224044817</v>
+      </c>
+      <c r="N173" t="n">
+        <v>10.5520753379156</v>
+      </c>
+      <c r="O173" t="n">
+        <v>-47.51398383890761</v>
+      </c>
+      <c r="P173" t="n">
+        <v>-58.06605917682321</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1524</v>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="n">
+        <v>69.04058074951172</v>
+      </c>
+      <c r="E174" t="n">
+        <v>23.70592290862253</v>
+      </c>
+      <c r="F174" t="b">
+        <v>1</v>
+      </c>
+      <c r="G174" t="n">
+        <v>37.5217460239923</v>
+      </c>
+      <c r="H174" t="n">
+        <v>47</v>
+      </c>
+      <c r="I174" t="n">
+        <v>-1.815760461021842</v>
+      </c>
+      <c r="J174" t="n">
+        <v>9</v>
+      </c>
+      <c r="K174" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
+        <v>13.81582311536977</v>
+      </c>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1545</v>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="n">
+        <v>81.59552764892578</v>
+      </c>
+      <c r="E175" t="n">
+        <v>9.942365928248531</v>
+      </c>
+      <c r="F175" t="b">
+        <v>1</v>
+      </c>
+      <c r="G175" t="n">
+        <v>16.51011012831992</v>
+      </c>
+      <c r="H175" t="n">
+        <v>49</v>
+      </c>
+      <c r="I175" t="n">
+        <v>-2.878441423266767</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>37</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1.028294917319852</v>
+      </c>
+      <c r="N175" t="n">
+        <v>6.567744200071392</v>
+      </c>
+      <c r="O175" t="n">
+        <v>-8.914071010928678</v>
+      </c>
+      <c r="P175" t="n">
+        <v>-15.48181521100007</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1594</v>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="n">
+        <v>92.41825103759766</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-1.241463514301671</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>7.986235721003427</v>
+      </c>
+      <c r="H176" t="n">
+        <v>41</v>
+      </c>
+      <c r="I176" t="n">
+        <v>-17.45278860765303</v>
+      </c>
+      <c r="J176" t="n">
+        <v>8</v>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>7</v>
+      </c>
+      <c r="M176" t="n">
+        <v>-10.99934824486346</v>
+      </c>
+      <c r="N176" t="n">
+        <v>9.227699235305098</v>
+      </c>
+      <c r="O176" t="n">
+        <v>-9.757884730561784</v>
+      </c>
+      <c r="P176" t="n">
+        <v>-18.98558396586688</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1620</v>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="n">
+        <v>88.91720581054688</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3.97797221961952</v>
+      </c>
+      <c r="F177" t="b">
+        <v>1</v>
+      </c>
+      <c r="G177" t="n">
+        <v>12.23810904194123</v>
+      </c>
+      <c r="H177" t="n">
+        <v>15</v>
+      </c>
+      <c r="I177" t="n">
+        <v>-4.295482918334319</v>
+      </c>
+      <c r="J177" t="n">
+        <v>21</v>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>20</v>
+      </c>
+      <c r="M177" t="n">
+        <v>-1.765318215468697</v>
+      </c>
+      <c r="N177" t="n">
+        <v>8.260136822321707</v>
+      </c>
+      <c r="O177" t="n">
+        <v>-5.743290435088218</v>
+      </c>
+      <c r="P177" t="n">
+        <v>-14.00342725740992</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1634</v>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="n">
+        <v>98.3839111328125</v>
+      </c>
+      <c r="E178" t="n">
+        <v>9.303668229604147</v>
+      </c>
+      <c r="F178" t="b">
+        <v>1</v>
+      </c>
+      <c r="G178" t="n">
+        <v>10.38852034875739</v>
+      </c>
+      <c r="H178" t="n">
+        <v>52</v>
+      </c>
+      <c r="I178" t="n">
+        <v>-13.50437135131001</v>
+      </c>
+      <c r="J178" t="n">
+        <v>7</v>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>6</v>
+      </c>
+      <c r="M178" t="n">
+        <v>-11.21766437830118</v>
+      </c>
+      <c r="N178" t="n">
+        <v>1.084852119153243</v>
+      </c>
+      <c r="O178" t="n">
+        <v>-20.52133260790533</v>
+      </c>
+      <c r="P178" t="n">
+        <v>-21.60618472705858</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1655</v>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="n">
+        <v>90.09115600585938</v>
+      </c>
+      <c r="E179" t="n">
+        <v>35.17273425387357</v>
+      </c>
+      <c r="F179" t="b">
+        <v>1</v>
+      </c>
+      <c r="G179" t="n">
+        <v>35.77618363583711</v>
+      </c>
+      <c r="H179" t="n">
+        <v>52</v>
+      </c>
+      <c r="I179" t="n">
+        <v>-1.035433423125848</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>18</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1.635814690998682</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0.6034493819635429</v>
+      </c>
+      <c r="O179" t="n">
+        <v>-33.53691956287489</v>
+      </c>
+      <c r="P179" t="n">
+        <v>-34.14036894483843</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1660</v>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="n">
+        <v>96.48378753662109</v>
+      </c>
+      <c r="E180" t="n">
+        <v>31.61414586674719</v>
+      </c>
+      <c r="F180" t="b">
+        <v>1</v>
+      </c>
+      <c r="G180" t="n">
+        <v>32.7114357443031</v>
+      </c>
+      <c r="H180" t="n">
+        <v>51</v>
+      </c>
+      <c r="I180" t="n">
+        <v>-6.699283336321983</v>
+      </c>
+      <c r="J180" t="n">
+        <v>14</v>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>13</v>
+      </c>
+      <c r="M180" t="n">
+        <v>-5.098169641879289</v>
+      </c>
+      <c r="N180" t="n">
+        <v>1.097289877555909</v>
+      </c>
+      <c r="O180" t="n">
+        <v>-36.71231550862648</v>
+      </c>
+      <c r="P180" t="n">
+        <v>-37.80960538618239</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1686</v>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="n">
+        <v>107.537223815918</v>
+      </c>
+      <c r="E181" t="n">
+        <v>43.27737140779019</v>
+      </c>
+      <c r="F181" t="b">
+        <v>1</v>
+      </c>
+      <c r="G181" t="n">
+        <v>46.03183984741862</v>
+      </c>
+      <c r="H181" t="n">
+        <v>50</v>
+      </c>
+      <c r="I181" t="n">
+        <v>-2.873058629224597</v>
+      </c>
+      <c r="J181" t="n">
+        <v>3</v>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>12</v>
+      </c>
+      <c r="M181" t="n">
+        <v>-0.7879607117896497</v>
+      </c>
+      <c r="N181" t="n">
+        <v>2.754468439628432</v>
+      </c>
+      <c r="O181" t="n">
+        <v>-44.06533211957984</v>
+      </c>
+      <c r="P181" t="n">
+        <v>-46.81980055920828</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="n">
+        <v>125.5747222900391</v>
+      </c>
+      <c r="E182" t="n">
+        <v>40.70727058756341</v>
+      </c>
+      <c r="F182" t="b">
+        <v>1</v>
+      </c>
+      <c r="G182" t="n">
+        <v>50.57293911966666</v>
+      </c>
+      <c r="H182" t="n">
+        <v>50</v>
+      </c>
+      <c r="I182" t="n">
+        <v>-5.14203328606841</v>
+      </c>
+      <c r="J182" t="n">
+        <v>4</v>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>39</v>
+      </c>
+      <c r="M182" t="n">
+        <v>21.30531437184867</v>
+      </c>
+      <c r="N182" t="n">
+        <v>9.86566853210325</v>
+      </c>
+      <c r="O182" t="n">
+        <v>-19.40195621571474</v>
+      </c>
+      <c r="P182" t="n">
+        <v>-29.26762474781799</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1727</v>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="n">
+        <v>145.0154724121094</v>
+      </c>
+      <c r="E183" t="n">
+        <v>21.30429997304218</v>
+      </c>
+      <c r="F183" t="b">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>30.38715593473592</v>
+      </c>
+      <c r="H183" t="n">
+        <v>33</v>
+      </c>
+      <c r="I183" t="n">
+        <v>-5.551840435502919</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>22</v>
+      </c>
+      <c r="M183" t="n">
+        <v>5.043144094731607</v>
+      </c>
+      <c r="N183" t="n">
+        <v>9.082855961693738</v>
+      </c>
+      <c r="O183" t="n">
+        <v>-16.26115587831057</v>
+      </c>
+      <c r="P183" t="n">
+        <v>-25.34401184000431</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7046,33 +9500,41 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>71.15384615384616</v>
       </c>
       <c r="D4" t="n">
-        <v>1.80479917945538</v>
+        <v>15.35107071045192</v>
       </c>
       <c r="E4" t="n">
-        <v>1.80479917945538</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>17.49198260593758</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20.40816095324085</v>
+      </c>
       <c r="G4" t="n">
-        <v>23.94350412672615</v>
+        <v>25.2003969645498</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-14.1739090313419</v>
       </c>
       <c r="I4" t="n">
-        <v>22.13870494727077</v>
+        <v>9.84932625409788</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.02564102564103</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23.07692307692308</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-12.34457382668397</v>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
